--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
@@ -46,75 +46,69 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>water</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>paint</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
@@ -124,10 +118,13 @@
     <t>better</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>use</t>
@@ -136,6 +133,9 @@
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
@@ -163,13 +166,10 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>fun</t>
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7419354838709677</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>0.6451612903225806</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7766990291262136</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7184466019417476</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K7">
-        <v>0.453125</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K8">
-        <v>0.340983606557377</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L8">
-        <v>416</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>416</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>804</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>0.3041606886657102</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L9">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="M9">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>485</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6554054054054054</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K10">
-        <v>0.2593360995850623</v>
+        <v>0.2959770114942529</v>
       </c>
       <c r="L10">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="M10">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>357</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>0.2583333333333334</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5798319327731093</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>0.2108433734939759</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>131</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>0.1498470948012232</v>
+        <v>0.1746987951807229</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>278</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5101449275362319</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14">
-        <v>0.07975460122699386</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L14">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4842105263157895</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>0.03309539260220636</v>
+        <v>0.03893575600259572</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1490</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4819277108433735</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1281,13 +1281,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4761904761904762</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1307,13 +1307,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4173228346456693</v>
+        <v>0.3203125</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1333,13 +1333,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3258426966292135</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1359,13 +1359,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3080568720379147</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1385,13 +1385,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2920792079207921</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1411,13 +1411,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2890625</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1437,13 +1437,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2735042735042735</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1463,13 +1463,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2319587628865979</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>149</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1489,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2065217391304348</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1515,13 +1515,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.189873417721519</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>256</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1541,13 +1541,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1740506329113924</v>
+        <v>0.16</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>261</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1706231454005935</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C28">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>559</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1593,13 +1593,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.16</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>168</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1619,13 +1619,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1495327102803738</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>182</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1645,25 +1645,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1412103746397695</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>298</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1671,13 +1671,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1365638766519824</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>392</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1697,25 +1697,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1041095890410959</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>327</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1723,13 +1723,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.06578947368421052</v>
+        <v>0.0645879732739421</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>568</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
